--- a/data/case1/13/Plm2_1.xlsx
+++ b/data/case1/13/Plm2_1.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.35020089811207811</v>
+        <v>-0.41829962205201809</v>
       </c>
       <c r="B1" s="0">
-        <v>0.3494366343869757</v>
+        <v>0.41725173969997797</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.23824018133223035</v>
+        <v>-0.29251371723288777</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23616248131476603</v>
+        <v>0.28944809341118827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13321542933735842</v>
+        <v>-0.18649682980883142</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13274084637878403</v>
+        <v>0.18558314544700494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1207408465412847</v>
+        <v>-0.17358314564053501</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1203396752575685</v>
+        <v>0.17276195128539484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14538328185308469</v>
+        <v>-0.16676195197336163</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14379348806876902</v>
+        <v>0.16511814669234504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.042864918276297015</v>
+        <v>-0.063796773441434862</v>
       </c>
       <c r="B6" s="0">
-        <v>0.042841676709782117</v>
+        <v>0.063734715822217236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.022841677475151201</v>
+        <v>-0.043734716656027572</v>
       </c>
       <c r="B7" s="0">
-        <v>0.022805302104609737</v>
+        <v>0.043626282188958143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.002805302871856874</v>
+        <v>-0.023626283027608608</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0027565235662070364</v>
+        <v>0.023581436819195112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0032434757772454859</v>
+        <v>-0.01758143754095709</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0033007976214660673</v>
+        <v>0.017555890908484528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0093007969655261036</v>
+        <v>-0.01155589163299453</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0093089180421230822</v>
+        <v>0.011557360584973253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.036561861277419894</v>
+        <v>-0.0070573612966420285</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.036592617787000847</v>
+        <v>0.0070579161191730577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.042592617132870547</v>
+        <v>-0.0010579168439033282</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.042776722258085709</v>
+        <v>0.001057450051869413</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.048776721611319296</v>
+        <v>0.0049425492232746393</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.048866434842476103</v>
+        <v>-0.004943794441584437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027080814212150806</v>
+        <v>-0.027084313177473618</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027050306157956783</v>
+        <v>0.027052462722002346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050306803084951</v>
+        <v>-0.021052463448884673</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026326723558419</v>
+        <v>0.021027430496753929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026327370542436</v>
+        <v>-0.015027431225929089</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004041419343306</v>
+        <v>0.015004133424103117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090040420687529377</v>
+        <v>-0.0090041341563242838</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999993263152334</v>
+        <v>0.0089999992412268526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10119645369337249</v>
+        <v>-0.10467052511267738</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10109519104819853</v>
+        <v>0.10455818217332435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.092095191680217514</v>
+        <v>-0.027096529700363359</v>
       </c>
       <c r="B19" s="0">
-        <v>0.09129353402368201</v>
+        <v>0.027013238939074924</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.082293534675933699</v>
+        <v>-0.018013239618458243</v>
       </c>
       <c r="B20" s="0">
-        <v>0.082116370489899282</v>
+        <v>0.018004241549915534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.07311637114650793</v>
+        <v>-0.0090042422302305525</v>
       </c>
       <c r="B21" s="0">
-        <v>0.072868682536307627</v>
+        <v>0.0089999993190659211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093947052624637095</v>
+        <v>-0.093951264296302739</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093634474514713517</v>
+        <v>0.093637366467813621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084634475167381318</v>
+        <v>-0.084637367167717414</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126723280145477</v>
+        <v>0.084127281352007088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126724202924848</v>
+        <v>-0.042127282347874662</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999072360517</v>
+        <v>0.04199999899877227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094928570445848237</v>
+        <v>-0.095321373962114819</v>
       </c>
       <c r="B25" s="0">
-        <v>0.09468548227857454</v>
+        <v>0.095198334881924751</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088685482934348414</v>
+        <v>-0.089198335595739309</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088371035126549202</v>
+        <v>0.089044727947559466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082371035785850921</v>
+        <v>-0.083044728664873002</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081290589488859588</v>
+        <v>0.082536368138486527</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075290590162007121</v>
+        <v>-0.077416825368148423</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074542085482471876</v>
+        <v>0.077070990531693973</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062542086212715731</v>
+        <v>-0.065070991325693939</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062171496846740837</v>
+        <v>0.064921008968472194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042171497645052902</v>
+        <v>-0.042169241747813668</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019424267644823</v>
+        <v>0.042018995545197058</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019425032818845</v>
+        <v>-0.027018996377293547</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000634774964283</v>
+        <v>0.027000603728595252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006355887232132</v>
+        <v>-0.0060006046136749092</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999993050183775</v>
+        <v>0.0059999992440955552</v>
       </c>
     </row>
   </sheetData>
